--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H2">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I2">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J2">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N2">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O2">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P2">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q2">
-        <v>22.45563928988568</v>
+        <v>26.26951227246334</v>
       </c>
       <c r="R2">
-        <v>22.45563928988568</v>
+        <v>236.42561045217</v>
       </c>
       <c r="S2">
-        <v>0.00255100445961274</v>
+        <v>0.002640211394537928</v>
       </c>
       <c r="T2">
-        <v>0.00255100445961274</v>
+        <v>0.003309022898184874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H3">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I3">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J3">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N3">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P3">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q3">
-        <v>271.5449998877705</v>
+        <v>308.7066709619087</v>
       </c>
       <c r="R3">
-        <v>271.5449998877705</v>
+        <v>2778.360038657178</v>
       </c>
       <c r="S3">
-        <v>0.03084804207784235</v>
+        <v>0.0310264942032391</v>
       </c>
       <c r="T3">
-        <v>0.03084804207784235</v>
+        <v>0.03888604525429928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H4">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I4">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J4">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N4">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O4">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P4">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q4">
-        <v>493.4943616706323</v>
+        <v>668.9656563412556</v>
       </c>
       <c r="R4">
-        <v>493.4943616706323</v>
+        <v>6020.6909070713</v>
       </c>
       <c r="S4">
-        <v>0.05606192284993432</v>
+        <v>0.06723424211716839</v>
       </c>
       <c r="T4">
-        <v>0.05606192284993432</v>
+        <v>0.08426584597281954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H5">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I5">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J5">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N5">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O5">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P5">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q5">
-        <v>733.0168759917734</v>
+        <v>817.5791198878101</v>
       </c>
       <c r="R5">
-        <v>733.0168759917734</v>
+        <v>7358.21207899029</v>
       </c>
       <c r="S5">
-        <v>0.08327214805541758</v>
+        <v>0.08217060468712206</v>
       </c>
       <c r="T5">
-        <v>0.08327214805541758</v>
+        <v>0.102985849174767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H6">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I6">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J6">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N6">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O6">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P6">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q6">
-        <v>238.414742717495</v>
+        <v>261.3719049667454</v>
       </c>
       <c r="R6">
-        <v>238.414742717495</v>
+        <v>1568.231429800472</v>
       </c>
       <c r="S6">
-        <v>0.0270843801887971</v>
+        <v>0.02626912424364458</v>
       </c>
       <c r="T6">
-        <v>0.0270843801887971</v>
+        <v>0.02194903378250044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J7">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N7">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O7">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P7">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q7">
-        <v>20.60412177032957</v>
+        <v>23.782145128325</v>
       </c>
       <c r="R7">
-        <v>20.60412177032957</v>
+        <v>214.039306154925</v>
       </c>
       <c r="S7">
-        <v>0.002340668454992013</v>
+        <v>0.002390219121813579</v>
       </c>
       <c r="T7">
-        <v>0.002340668454992013</v>
+        <v>0.0029957032312349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J8">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N8">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P8">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q8">
-        <v>249.1555092947984</v>
+        <v>279.476328861805</v>
       </c>
       <c r="R8">
-        <v>249.1555092947984</v>
+        <v>2515.286959756245</v>
       </c>
       <c r="S8">
-        <v>0.02830455223932972</v>
+        <v>0.02808870527596494</v>
       </c>
       <c r="T8">
-        <v>0.02830455223932972</v>
+        <v>0.03520406325448842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J9">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N9">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O9">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P9">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q9">
-        <v>452.804651409438</v>
+        <v>605.6236659425833</v>
       </c>
       <c r="R9">
-        <v>452.804651409438</v>
+        <v>5450.61299348325</v>
       </c>
       <c r="S9">
-        <v>0.05143949233274083</v>
+        <v>0.06086806968622495</v>
       </c>
       <c r="T9">
-        <v>0.05143949233274083</v>
+        <v>0.07628701125096125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H10">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I10">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J10">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N10">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O10">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P10">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q10">
-        <v>672.5780004599438</v>
+        <v>740.165446598025</v>
       </c>
       <c r="R10">
-        <v>672.5780004599438</v>
+        <v>6661.489019382225</v>
       </c>
       <c r="S10">
-        <v>0.07640617381058185</v>
+        <v>0.07439016094713781</v>
       </c>
       <c r="T10">
-        <v>0.07640617381058185</v>
+        <v>0.09323448360346855</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H11">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I11">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J11">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N11">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O11">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P11">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q11">
-        <v>218.7569156851232</v>
+        <v>236.62352433173</v>
       </c>
       <c r="R11">
-        <v>218.7569156851232</v>
+        <v>1419.74114599038</v>
       </c>
       <c r="S11">
-        <v>0.02485121266332552</v>
+        <v>0.02378179384058178</v>
       </c>
       <c r="T11">
-        <v>0.02485121266332552</v>
+        <v>0.0198707574555584</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H12">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I12">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J12">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N12">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O12">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P12">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q12">
-        <v>5.09101625994754</v>
+        <v>5.986307962121667</v>
       </c>
       <c r="R12">
-        <v>5.09101625994754</v>
+        <v>53.876771659095</v>
       </c>
       <c r="S12">
-        <v>0.000578349385445319</v>
+        <v>0.0006016525289422388</v>
       </c>
       <c r="T12">
-        <v>0.000578349385445319</v>
+        <v>0.0007540615873181386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H13">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I13">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J13">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N13">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P13">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q13">
-        <v>61.56315533438239</v>
+        <v>70.34821138558033</v>
       </c>
       <c r="R13">
-        <v>61.56315533438239</v>
+        <v>633.133902470223</v>
       </c>
       <c r="S13">
-        <v>0.006993694625143794</v>
+        <v>0.007070331087961054</v>
       </c>
       <c r="T13">
-        <v>0.006993694625143794</v>
+        <v>0.008861369023788375</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H14">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I14">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J14">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N14">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O14">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P14">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q14">
-        <v>111.8822664999448</v>
+        <v>152.4441867593944</v>
       </c>
       <c r="R14">
-        <v>111.8822664999448</v>
+        <v>1371.99768083455</v>
       </c>
       <c r="S14">
-        <v>0.01271004388289643</v>
+        <v>0.01532136854079017</v>
       </c>
       <c r="T14">
-        <v>0.01271004388289643</v>
+        <v>0.01920253788688652</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H15">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I15">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J15">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N15">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O15">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P15">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q15">
-        <v>166.1854639859182</v>
+        <v>186.310287921835</v>
       </c>
       <c r="R15">
-        <v>166.1854639859182</v>
+        <v>1676.792591296515</v>
       </c>
       <c r="S15">
-        <v>0.01887899312409413</v>
+        <v>0.01872507338503185</v>
       </c>
       <c r="T15">
-        <v>0.01887899312409413</v>
+        <v>0.02346846041549892</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H16">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I16">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J16">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N16">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O16">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P16">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q16">
-        <v>54.05204973757643</v>
+        <v>59.56154417900866</v>
       </c>
       <c r="R16">
-        <v>54.05204973757643</v>
+        <v>357.369265074052</v>
       </c>
       <c r="S16">
-        <v>0.006140418366707253</v>
+        <v>0.005986219537944501</v>
       </c>
       <c r="T16">
-        <v>0.006140418366707253</v>
+        <v>0.00500175543155369</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H17">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I17">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J17">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N17">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O17">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P17">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q17">
-        <v>5.801489610970664</v>
+        <v>6.47214492265</v>
       </c>
       <c r="R17">
-        <v>5.801489610970664</v>
+        <v>58.24930430384999</v>
       </c>
       <c r="S17">
-        <v>0.0006590605450564524</v>
+        <v>0.0006504814628703028</v>
       </c>
       <c r="T17">
-        <v>0.0006590605450564524</v>
+        <v>0.000815259740161577</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H18">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I18">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J18">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N18">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P18">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q18">
-        <v>70.15456008279828</v>
+        <v>76.05753362800998</v>
       </c>
       <c r="R18">
-        <v>70.15456008279828</v>
+        <v>684.5178026520898</v>
       </c>
       <c r="S18">
-        <v>0.007969694976085422</v>
+        <v>0.007644145229739108</v>
       </c>
       <c r="T18">
-        <v>0.007969694976085422</v>
+        <v>0.009580540275898736</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H19">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I19">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J19">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N19">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O19">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P19">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q19">
-        <v>127.4959209731476</v>
+        <v>164.8162566251666</v>
       </c>
       <c r="R19">
-        <v>127.4959209731476</v>
+        <v>1483.3463096265</v>
       </c>
       <c r="S19">
-        <v>0.014483785510904</v>
+        <v>0.01656482062679908</v>
       </c>
       <c r="T19">
-        <v>0.014483785510904</v>
+        <v>0.02076097803069906</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H20">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I20">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J20">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N20">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O20">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P20">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q20">
-        <v>189.3773646715045</v>
+        <v>201.43086383805</v>
       </c>
       <c r="R20">
-        <v>189.3773646715045</v>
+        <v>1812.87777454245</v>
       </c>
       <c r="S20">
-        <v>0.02151363831553493</v>
+        <v>0.02024476345053085</v>
       </c>
       <c r="T20">
-        <v>0.02151363831553493</v>
+        <v>0.02537311442740251</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H21">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I21">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J21">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N21">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O21">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P21">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q21">
-        <v>61.59524719480086</v>
+        <v>64.39544176186</v>
       </c>
       <c r="R21">
-        <v>61.59524719480086</v>
+        <v>386.37265057116</v>
       </c>
       <c r="S21">
-        <v>0.006997340323134751</v>
+        <v>0.006472049322140819</v>
       </c>
       <c r="T21">
-        <v>0.006997340323134751</v>
+        <v>0.005407688048376641</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H22">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I22">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J22">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N22">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O22">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P22">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q22">
-        <v>58.42847827910978</v>
+        <v>62.97678835918751</v>
       </c>
       <c r="R22">
-        <v>58.42847827910978</v>
+        <v>377.8607301551251</v>
       </c>
       <c r="S22">
-        <v>0.006637589192374044</v>
+        <v>0.006329467882493684</v>
       </c>
       <c r="T22">
-        <v>0.006637589192374044</v>
+        <v>0.005288554848253701</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H23">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I23">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J23">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N23">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O23">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P23">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q23">
-        <v>706.5468465593722</v>
+        <v>740.0729210574875</v>
       </c>
       <c r="R23">
-        <v>706.5468465593722</v>
+        <v>4440.437526344926</v>
       </c>
       <c r="S23">
-        <v>0.08026510103901176</v>
+        <v>0.07438086168859509</v>
       </c>
       <c r="T23">
-        <v>0.08026510103901176</v>
+        <v>0.0621485524539116</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H24">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I24">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J24">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N24">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O24">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P24">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q24">
-        <v>1284.048261530588</v>
+        <v>1603.733945343542</v>
       </c>
       <c r="R24">
-        <v>1284.048261530588</v>
+        <v>9622.403672061249</v>
       </c>
       <c r="S24">
-        <v>0.1458703891364115</v>
+        <v>0.161182917763636</v>
       </c>
       <c r="T24">
-        <v>0.1458703891364115</v>
+        <v>0.134675570998982</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H25">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I25">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J25">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N25">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O25">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P25">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q25">
-        <v>1907.274162370297</v>
+        <v>1960.010017164938</v>
       </c>
       <c r="R25">
-        <v>1907.274162370297</v>
+        <v>11760.06010298963</v>
       </c>
       <c r="S25">
-        <v>0.2166700680885202</v>
+        <v>0.1969903638504855</v>
       </c>
       <c r="T25">
-        <v>0.2166700680885202</v>
+        <v>0.1645943013127826</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H26">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I26">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J26">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N26">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O26">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P26">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q26">
-        <v>620.3435331526301</v>
+        <v>626.595689002675</v>
       </c>
       <c r="R26">
-        <v>620.3435331526301</v>
+        <v>2506.3827560107</v>
       </c>
       <c r="S26">
-        <v>0.07047223635610594</v>
+        <v>0.06297585812460443</v>
       </c>
       <c r="T26">
-        <v>0.07047223635610594</v>
+        <v>0.03507943964020331</v>
       </c>
     </row>
   </sheetData>
